--- a/VMIstats.xlsx
+++ b/VMIstats.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Nykyiset\Carbon-cluster\Prebas\VMIstats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B13F0-5E6C-4B53-9C6D-23B73CD68A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD52CCC-FC52-4B35-BE87-DC651EBA99B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1860" windowWidth="15900" windowHeight="9210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="2550" windowWidth="15900" windowHeight="9210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tilavuus" sheetId="2" r:id="rId1"/>
     <sheet name="biomassa" sheetId="4" r:id="rId2"/>
     <sheet name="kasvu" sheetId="5" r:id="rId3"/>
-    <sheet name="ikaluokat_metsamaa" sheetId="6" r:id="rId4"/>
-    <sheet name="maaluokat" sheetId="3" r:id="rId5"/>
+    <sheet name="lajitilavuudet" sheetId="7" r:id="rId4"/>
+    <sheet name="ikaluokat_metsamaa" sheetId="6" r:id="rId5"/>
+    <sheet name="maaluokat" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -567,6 +568,139 @@
     <author>PxWeb</author>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{F0B80D27-4728-499F-8FDF-C6E4BBEBE628}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Mänty sisältää kaikki muut havupuut paitsi kuusen.
+VMI12:n tulokseen muuta havupuuta sisältyy yhteensä 3,3 miljoonaa kuutiometriä.
+VMI 13:n v. 2019-2023 tulokseen muuta havupuuta sisältyy yhteensä 3,5 miljoonaa kuutiometriä.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{E7AA4445-8690-4A52-8890-830ECA9823FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">VMI 12:n mukaisesta puuston tilavuudesta oli metsämaalla 2 409 milj. m³ ja kitumaalla 67 milj. m³.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{6F7EEF73-4E03-4EBA-BD34-7884805B2F40}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{58E67F0F-1F0C-4665-BD0F-761639D063AC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{2BE7CAB1-54CC-440E-B2D9-C595ED342126}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{65871730-6168-4C79-8E9A-C8A8E81CFE64}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{41690301-39BD-4EC8-BA15-711FA751DEFC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{4BB5E47D-15BE-45DF-B96C-B09647B7EA09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{7EDAF9FD-5AA2-46CD-AC74-4DD7030E9DB6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ahvenanmaan maakunta mitattu vuonna 2023 ja Inarin, Utsjoen ja Enontekiön kunnat vuonna 2022.
+VMI 13:n v. 2019-2023 mukaisesta puuston tilavuudesta oli metsämaalla 2 482 milj. m³ ja kitumaalla 70 milj. m³.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PxWeb</author>
+  </authors>
+  <commentList>
     <comment ref="C24" authorId="0" shapeId="0" xr:uid="{BB6CD9DD-2353-40E9-A3B8-1389873B778E}">
       <text>
         <r>
@@ -725,7 +859,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PxWeb</author>
@@ -776,7 +910,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="112">
   <si>
     <t>Puuston tilavuus puuntuotannon metsä- ja kitumaalla puulajeittain (milj. m³) muuttujina inventointi, maakunta ja puulaji</t>
   </si>
@@ -1078,6 +1212,46 @@
   </si>
   <si>
     <t>Luke_Met_Mvarat_1.13</t>
+  </si>
+  <si>
+    <t>Puuston tilavuus metsä- ja kitumaalla puulajeittain muuttujina inventointi, maakunta ja puulaji</t>
+  </si>
+  <si>
+    <t>Mänty (milj. m³)</t>
+  </si>
+  <si>
+    <t>Kuusi (milj. m³)</t>
+  </si>
+  <si>
+    <t>Koivu (milj. m³)</t>
+  </si>
+  <si>
+    <t>Muut lehtipuut (milj. m³)</t>
+  </si>
+  <si>
+    <t>Koko puusto (milj. m³)</t>
+  </si>
+  <si>
+    <t>Puustosta puuntuotannon maalla (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMI 12:n mukaisesta puuston tilavuudesta oli metsämaalla 2 409 milj. m³ ja kitumaalla 67 milj. m³.
+</t>
+  </si>
+  <si>
+    <t>Ahvenanmaan maakunta mitattu vuonna 2023 ja Inarin, Utsjoen ja Enontekiön kunnat vuonna 2022.
+VMI 13:n v. 2019-2023 mukaisesta puuston tilavuudesta oli metsämaalla 2 482 milj. m³ ja kitumaalla 70 milj. m³.</t>
+  </si>
+  <si>
+    <t>Mänty (milj. m³):</t>
+  </si>
+  <si>
+    <t>Mänty sisältää kaikki muut havupuut paitsi kuusen.
+VMI12:n tulokseen muuta havupuuta sisältyy yhteensä 3,3 miljoonaa kuutiometriä.
+VMI 13:n v. 2019-2023 tulokseen muuta havupuuta sisältyy yhteensä 3,5 miljoonaa kuutiometriä.</t>
+  </si>
+  <si>
+    <t>Luke_Met_Mvarat_1.16</t>
   </si>
 </sst>
 </file>
@@ -5586,7 +5760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289225F8-54E6-466C-BC6C-327CC00592B7}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -6802,6 +6976,1208 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D275E7-C753-47AA-B032-C6F42E5EDEDD}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1244</v>
+      </c>
+      <c r="D4" s="7">
+        <v>740</v>
+      </c>
+      <c r="E4" s="7">
+        <v>411</v>
+      </c>
+      <c r="F4" s="7">
+        <v>81</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2475</v>
+      </c>
+      <c r="H4" s="10">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>713</v>
+      </c>
+      <c r="D5" s="7">
+        <v>572</v>
+      </c>
+      <c r="E5" s="7">
+        <v>269</v>
+      </c>
+      <c r="F5" s="7">
+        <v>70</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1624</v>
+      </c>
+      <c r="H5" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>530</v>
+      </c>
+      <c r="D6" s="7">
+        <v>168</v>
+      </c>
+      <c r="E6" s="7">
+        <v>142</v>
+      </c>
+      <c r="F6" s="7">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7">
+        <v>852</v>
+      </c>
+      <c r="H6" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7">
+        <v>86</v>
+      </c>
+      <c r="H7" s="10">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>91</v>
+      </c>
+      <c r="H8" s="10">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>76</v>
+      </c>
+      <c r="H9" s="10">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>62</v>
+      </c>
+      <c r="H10" s="10">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7">
+        <v>61</v>
+      </c>
+      <c r="E11" s="7">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7">
+        <v>143</v>
+      </c>
+      <c r="H11" s="10">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>58</v>
+      </c>
+      <c r="H12" s="10">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>53</v>
+      </c>
+      <c r="H13" s="10">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>60</v>
+      </c>
+      <c r="H14" s="10">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7">
+        <v>65</v>
+      </c>
+      <c r="E15" s="7">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>184</v>
+      </c>
+      <c r="H15" s="10">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>69</v>
+      </c>
+      <c r="D16" s="7">
+        <v>78</v>
+      </c>
+      <c r="E16" s="7">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7">
+        <v>189</v>
+      </c>
+      <c r="H16" s="10">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>195</v>
+      </c>
+      <c r="H17" s="10">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7">
+        <v>196</v>
+      </c>
+      <c r="H18" s="10">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>69</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>111</v>
+      </c>
+      <c r="H19" s="10">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>69</v>
+      </c>
+      <c r="H20" s="10">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>38</v>
+      </c>
+      <c r="H21" s="10">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7">
+        <v>163</v>
+      </c>
+      <c r="D22" s="7">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>263</v>
+      </c>
+      <c r="H22" s="10">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7">
+        <v>102</v>
+      </c>
+      <c r="D23" s="7">
+        <v>39</v>
+      </c>
+      <c r="E23" s="7">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>172</v>
+      </c>
+      <c r="H23" s="10">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7">
+        <v>266</v>
+      </c>
+      <c r="D24" s="7">
+        <v>78</v>
+      </c>
+      <c r="E24" s="7">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>417</v>
+      </c>
+      <c r="H24" s="10">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>12</v>
+      </c>
+      <c r="H25" s="10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1283</v>
+      </c>
+      <c r="D26" s="7">
+        <v>763</v>
+      </c>
+      <c r="E26" s="7">
+        <v>422</v>
+      </c>
+      <c r="F26" s="7">
+        <v>85</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2552</v>
+      </c>
+      <c r="H26" s="10">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
+        <v>719</v>
+      </c>
+      <c r="D27" s="7">
+        <v>586</v>
+      </c>
+      <c r="E27" s="7">
+        <v>278</v>
+      </c>
+      <c r="F27" s="7">
+        <v>73</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1655</v>
+      </c>
+      <c r="H27" s="10">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>564</v>
+      </c>
+      <c r="D28" s="7">
+        <v>177</v>
+      </c>
+      <c r="E28" s="7">
+        <v>144</v>
+      </c>
+      <c r="F28" s="7">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7">
+        <v>897</v>
+      </c>
+      <c r="H28" s="10">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7">
+        <v>31</v>
+      </c>
+      <c r="E29" s="7">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7">
+        <v>85</v>
+      </c>
+      <c r="H29" s="10">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>92</v>
+      </c>
+      <c r="H30" s="10">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7">
+        <v>28</v>
+      </c>
+      <c r="E31" s="7">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7">
+        <v>79</v>
+      </c>
+      <c r="H31" s="10">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7">
+        <v>29</v>
+      </c>
+      <c r="E32" s="7">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7">
+        <v>58</v>
+      </c>
+      <c r="H32" s="10">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7">
+        <v>66</v>
+      </c>
+      <c r="E33" s="7">
+        <v>26</v>
+      </c>
+      <c r="F33" s="7">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7">
+        <v>156</v>
+      </c>
+      <c r="H33" s="10">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7">
+        <v>18</v>
+      </c>
+      <c r="D34" s="7">
+        <v>33</v>
+      </c>
+      <c r="E34" s="7">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4</v>
+      </c>
+      <c r="G34" s="7">
+        <v>67</v>
+      </c>
+      <c r="H34" s="10">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7">
+        <v>22</v>
+      </c>
+      <c r="D35" s="7">
+        <v>14</v>
+      </c>
+      <c r="E35" s="7">
+        <v>8</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>46</v>
+      </c>
+      <c r="H35" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7">
+        <v>27</v>
+      </c>
+      <c r="D36" s="7">
+        <v>20</v>
+      </c>
+      <c r="E36" s="7">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
+      <c r="G36" s="7">
+        <v>61</v>
+      </c>
+      <c r="H36" s="10">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="7">
+        <v>70</v>
+      </c>
+      <c r="D37" s="7">
+        <v>59</v>
+      </c>
+      <c r="E37" s="7">
+        <v>31</v>
+      </c>
+      <c r="F37" s="7">
+        <v>7</v>
+      </c>
+      <c r="G37" s="7">
+        <v>167</v>
+      </c>
+      <c r="H37" s="10">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="7">
+        <v>72</v>
+      </c>
+      <c r="D38" s="7">
+        <v>86</v>
+      </c>
+      <c r="E38" s="7">
+        <v>38</v>
+      </c>
+      <c r="F38" s="7">
+        <v>8</v>
+      </c>
+      <c r="G38" s="7">
+        <v>204</v>
+      </c>
+      <c r="H38" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7">
+        <v>99</v>
+      </c>
+      <c r="D39" s="7">
+        <v>65</v>
+      </c>
+      <c r="E39" s="7">
+        <v>39</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7">
+        <v>210</v>
+      </c>
+      <c r="H39" s="10">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7">
+        <v>89</v>
+      </c>
+      <c r="D40" s="7">
+        <v>66</v>
+      </c>
+      <c r="E40" s="7">
+        <v>29</v>
+      </c>
+      <c r="F40" s="7">
+        <v>7</v>
+      </c>
+      <c r="G40" s="7">
+        <v>191</v>
+      </c>
+      <c r="H40" s="10">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>73</v>
+      </c>
+      <c r="D41" s="7">
+        <v>25</v>
+      </c>
+      <c r="E41" s="7">
+        <v>16</v>
+      </c>
+      <c r="F41" s="7">
+        <v>3</v>
+      </c>
+      <c r="G41" s="7">
+        <v>118</v>
+      </c>
+      <c r="H41" s="10">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7">
+        <v>24</v>
+      </c>
+      <c r="E42" s="7">
+        <v>13</v>
+      </c>
+      <c r="F42" s="7">
+        <v>3</v>
+      </c>
+      <c r="G42" s="7">
+        <v>74</v>
+      </c>
+      <c r="H42" s="10">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="7">
+        <v>23</v>
+      </c>
+      <c r="D43" s="7">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7">
+        <v>6</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>38</v>
+      </c>
+      <c r="H43" s="10">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="7">
+        <v>169</v>
+      </c>
+      <c r="D44" s="7">
+        <v>55</v>
+      </c>
+      <c r="E44" s="7">
+        <v>46</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5</v>
+      </c>
+      <c r="G44" s="7">
+        <v>275</v>
+      </c>
+      <c r="H44" s="10">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="7">
+        <v>103</v>
+      </c>
+      <c r="D45" s="7">
+        <v>40</v>
+      </c>
+      <c r="E45" s="7">
+        <v>27</v>
+      </c>
+      <c r="F45" s="7">
+        <v>3</v>
+      </c>
+      <c r="G45" s="7">
+        <v>173</v>
+      </c>
+      <c r="H45" s="10">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="7">
+        <v>292</v>
+      </c>
+      <c r="D46" s="7">
+        <v>81</v>
+      </c>
+      <c r="E46" s="7">
+        <v>72</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4</v>
+      </c>
+      <c r="G46" s="7">
+        <v>449</v>
+      </c>
+      <c r="H46" s="10">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="7">
+        <v>7</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>11</v>
+      </c>
+      <c r="H47" s="10">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F5F85-3EB6-4ED1-B5EB-9718EF0B8AE4}">
   <dimension ref="A1:L86"/>
   <sheetViews>
@@ -8513,7 +9889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA7CBB-05E0-4981-A0ED-0D446B39B587}">
   <dimension ref="A1:D92"/>
   <sheetViews>

--- a/VMIstats.xlsx
+++ b/VMIstats.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Nykyiset\Carbon-cluster\Prebas\VMIstats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD52CCC-FC52-4B35-BE87-DC651EBA99B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD449CC5-7A9F-454B-BE72-4FC0D84AD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2550" windowWidth="15900" windowHeight="9210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tilavuus" sheetId="2" r:id="rId1"/>
-    <sheet name="biomassa" sheetId="4" r:id="rId2"/>
-    <sheet name="kasvu" sheetId="5" r:id="rId3"/>
-    <sheet name="lajitilavuudet" sheetId="7" r:id="rId4"/>
+    <sheet name="puuntotannonmaiden_tilavuus" sheetId="2" r:id="rId1"/>
+    <sheet name="tilavuus" sheetId="7" r:id="rId2"/>
+    <sheet name="biomassa" sheetId="4" r:id="rId3"/>
+    <sheet name="kasvu" sheetId="5" r:id="rId4"/>
     <sheet name="ikaluokat_metsamaa" sheetId="6" r:id="rId5"/>
     <sheet name="maaluokat" sheetId="3" r:id="rId6"/>
   </sheets>
@@ -128,6 +128,139 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PxWeb</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{F0B80D27-4728-499F-8FDF-C6E4BBEBE628}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Mänty sisältää kaikki muut havupuut paitsi kuusen.
+VMI12:n tulokseen muuta havupuuta sisältyy yhteensä 3,3 miljoonaa kuutiometriä.
+VMI 13:n v. 2019-2023 tulokseen muuta havupuuta sisältyy yhteensä 3,5 miljoonaa kuutiometriä.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{E7AA4445-8690-4A52-8890-830ECA9823FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">VMI 12:n mukaisesta puuston tilavuudesta oli metsämaalla 2 409 milj. m³ ja kitumaalla 67 milj. m³.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{6F7EEF73-4E03-4EBA-BD34-7884805B2F40}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{58E67F0F-1F0C-4665-BD0F-761639D063AC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{2BE7CAB1-54CC-440E-B2D9-C595ED342126}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{65871730-6168-4C79-8E9A-C8A8E81CFE64}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{41690301-39BD-4EC8-BA15-711FA751DEFC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{4BB5E47D-15BE-45DF-B96C-B09647B7EA09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{7EDAF9FD-5AA2-46CD-AC74-4DD7030E9DB6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ahvenanmaan maakunta mitattu vuonna 2023 ja Inarin, Utsjoen ja Enontekiön kunnat vuonna 2022.
+VMI 13:n v. 2019-2023 mukaisesta puuston tilavuudesta oli metsämaalla 2 482 milj. m³ ja kitumaalla 70 milj. m³.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PxWeb</author>
@@ -431,7 +564,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PxWeb</author>
@@ -554,139 +687,6 @@
           </rPr>
           <t xml:space="preserve">Ahvenanmaan maakunta mitattu vuonna 2023 ja Inarin, Utsjoen ja Enontekiön kunnat vuonna 2022.
 VMI13:n (2019-2023) mukaisesta kasvusta oli metsämaalla 101,5 milj. m³ ja kitumaalla 1,5 milj. m³.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PxWeb</author>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{F0B80D27-4728-499F-8FDF-C6E4BBEBE628}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Mänty sisältää kaikki muut havupuut paitsi kuusen.
-VMI12:n tulokseen muuta havupuuta sisältyy yhteensä 3,3 miljoonaa kuutiometriä.
-VMI 13:n v. 2019-2023 tulokseen muuta havupuuta sisältyy yhteensä 3,5 miljoonaa kuutiometriä.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{E7AA4445-8690-4A52-8890-830ECA9823FE}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">VMI 12:n mukaisesta puuston tilavuudesta oli metsämaalla 2 409 milj. m³ ja kitumaalla 67 milj. m³.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{6F7EEF73-4E03-4EBA-BD34-7884805B2F40}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{58E67F0F-1F0C-4665-BD0F-761639D063AC}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{2BE7CAB1-54CC-440E-B2D9-C595ED342126}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{65871730-6168-4C79-8E9A-C8A8E81CFE64}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{41690301-39BD-4EC8-BA15-711FA751DEFC}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{4BB5E47D-15BE-45DF-B96C-B09647B7EA09}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>VMI12: n mittauksia ei tehty Enontekiön, Inarin ja Utsjoen alueella, minkä osalta tulokset on laskettu VMI11:n aineistosta.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{7EDAF9FD-5AA2-46CD-AC74-4DD7030E9DB6}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Ahvenanmaan maakunta mitattu vuonna 2023 ja Inarin, Utsjoen ja Enontekiön kunnat vuonna 2022.
-VMI 13:n v. 2019-2023 mukaisesta puuston tilavuudesta oli metsämaalla 2 482 milj. m³ ja kitumaalla 70 milj. m³.
 </t>
         </r>
       </text>
@@ -1628,7 +1628,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,6 +2676,1208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D275E7-C753-47AA-B032-C6F42E5EDEDD}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1244</v>
+      </c>
+      <c r="D4" s="7">
+        <v>740</v>
+      </c>
+      <c r="E4" s="7">
+        <v>411</v>
+      </c>
+      <c r="F4" s="7">
+        <v>81</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2475</v>
+      </c>
+      <c r="H4" s="10">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>713</v>
+      </c>
+      <c r="D5" s="7">
+        <v>572</v>
+      </c>
+      <c r="E5" s="7">
+        <v>269</v>
+      </c>
+      <c r="F5" s="7">
+        <v>70</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1624</v>
+      </c>
+      <c r="H5" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>530</v>
+      </c>
+      <c r="D6" s="7">
+        <v>168</v>
+      </c>
+      <c r="E6" s="7">
+        <v>142</v>
+      </c>
+      <c r="F6" s="7">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7">
+        <v>852</v>
+      </c>
+      <c r="H6" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7">
+        <v>86</v>
+      </c>
+      <c r="H7" s="10">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>91</v>
+      </c>
+      <c r="H8" s="10">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>76</v>
+      </c>
+      <c r="H9" s="10">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>62</v>
+      </c>
+      <c r="H10" s="10">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7">
+        <v>61</v>
+      </c>
+      <c r="E11" s="7">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7">
+        <v>143</v>
+      </c>
+      <c r="H11" s="10">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>58</v>
+      </c>
+      <c r="H12" s="10">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>53</v>
+      </c>
+      <c r="H13" s="10">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>60</v>
+      </c>
+      <c r="H14" s="10">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7">
+        <v>65</v>
+      </c>
+      <c r="E15" s="7">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7">
+        <v>184</v>
+      </c>
+      <c r="H15" s="10">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>69</v>
+      </c>
+      <c r="D16" s="7">
+        <v>78</v>
+      </c>
+      <c r="E16" s="7">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7">
+        <v>189</v>
+      </c>
+      <c r="H16" s="10">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6</v>
+      </c>
+      <c r="G17" s="7">
+        <v>195</v>
+      </c>
+      <c r="H17" s="10">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7">
+        <v>196</v>
+      </c>
+      <c r="H18" s="10">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>69</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>111</v>
+      </c>
+      <c r="H19" s="10">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>69</v>
+      </c>
+      <c r="H20" s="10">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>38</v>
+      </c>
+      <c r="H21" s="10">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7">
+        <v>163</v>
+      </c>
+      <c r="D22" s="7">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>263</v>
+      </c>
+      <c r="H22" s="10">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="7">
+        <v>102</v>
+      </c>
+      <c r="D23" s="7">
+        <v>39</v>
+      </c>
+      <c r="E23" s="7">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>172</v>
+      </c>
+      <c r="H23" s="10">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7">
+        <v>266</v>
+      </c>
+      <c r="D24" s="7">
+        <v>78</v>
+      </c>
+      <c r="E24" s="7">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>417</v>
+      </c>
+      <c r="H24" s="10">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>12</v>
+      </c>
+      <c r="H25" s="10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1283</v>
+      </c>
+      <c r="D26" s="7">
+        <v>763</v>
+      </c>
+      <c r="E26" s="7">
+        <v>422</v>
+      </c>
+      <c r="F26" s="7">
+        <v>85</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2552</v>
+      </c>
+      <c r="H26" s="10">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
+        <v>719</v>
+      </c>
+      <c r="D27" s="7">
+        <v>586</v>
+      </c>
+      <c r="E27" s="7">
+        <v>278</v>
+      </c>
+      <c r="F27" s="7">
+        <v>73</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1655</v>
+      </c>
+      <c r="H27" s="10">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>564</v>
+      </c>
+      <c r="D28" s="7">
+        <v>177</v>
+      </c>
+      <c r="E28" s="7">
+        <v>144</v>
+      </c>
+      <c r="F28" s="7">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7">
+        <v>897</v>
+      </c>
+      <c r="H28" s="10">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7">
+        <v>31</v>
+      </c>
+      <c r="E29" s="7">
+        <v>16</v>
+      </c>
+      <c r="F29" s="7">
+        <v>9</v>
+      </c>
+      <c r="G29" s="7">
+        <v>85</v>
+      </c>
+      <c r="H29" s="10">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="7">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>92</v>
+      </c>
+      <c r="H30" s="10">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7">
+        <v>28</v>
+      </c>
+      <c r="E31" s="7">
+        <v>11</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7">
+        <v>79</v>
+      </c>
+      <c r="H31" s="10">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7">
+        <v>29</v>
+      </c>
+      <c r="E32" s="7">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7">
+        <v>58</v>
+      </c>
+      <c r="H32" s="10">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7">
+        <v>66</v>
+      </c>
+      <c r="E33" s="7">
+        <v>26</v>
+      </c>
+      <c r="F33" s="7">
+        <v>7</v>
+      </c>
+      <c r="G33" s="7">
+        <v>156</v>
+      </c>
+      <c r="H33" s="10">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="7">
+        <v>18</v>
+      </c>
+      <c r="D34" s="7">
+        <v>33</v>
+      </c>
+      <c r="E34" s="7">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4</v>
+      </c>
+      <c r="G34" s="7">
+        <v>67</v>
+      </c>
+      <c r="H34" s="10">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="7">
+        <v>22</v>
+      </c>
+      <c r="D35" s="7">
+        <v>14</v>
+      </c>
+      <c r="E35" s="7">
+        <v>8</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>46</v>
+      </c>
+      <c r="H35" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7">
+        <v>27</v>
+      </c>
+      <c r="D36" s="7">
+        <v>20</v>
+      </c>
+      <c r="E36" s="7">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
+      <c r="G36" s="7">
+        <v>61</v>
+      </c>
+      <c r="H36" s="10">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="7">
+        <v>70</v>
+      </c>
+      <c r="D37" s="7">
+        <v>59</v>
+      </c>
+      <c r="E37" s="7">
+        <v>31</v>
+      </c>
+      <c r="F37" s="7">
+        <v>7</v>
+      </c>
+      <c r="G37" s="7">
+        <v>167</v>
+      </c>
+      <c r="H37" s="10">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="7">
+        <v>72</v>
+      </c>
+      <c r="D38" s="7">
+        <v>86</v>
+      </c>
+      <c r="E38" s="7">
+        <v>38</v>
+      </c>
+      <c r="F38" s="7">
+        <v>8</v>
+      </c>
+      <c r="G38" s="7">
+        <v>204</v>
+      </c>
+      <c r="H38" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="7">
+        <v>99</v>
+      </c>
+      <c r="D39" s="7">
+        <v>65</v>
+      </c>
+      <c r="E39" s="7">
+        <v>39</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7">
+        <v>210</v>
+      </c>
+      <c r="H39" s="10">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7">
+        <v>89</v>
+      </c>
+      <c r="D40" s="7">
+        <v>66</v>
+      </c>
+      <c r="E40" s="7">
+        <v>29</v>
+      </c>
+      <c r="F40" s="7">
+        <v>7</v>
+      </c>
+      <c r="G40" s="7">
+        <v>191</v>
+      </c>
+      <c r="H40" s="10">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="7">
+        <v>73</v>
+      </c>
+      <c r="D41" s="7">
+        <v>25</v>
+      </c>
+      <c r="E41" s="7">
+        <v>16</v>
+      </c>
+      <c r="F41" s="7">
+        <v>3</v>
+      </c>
+      <c r="G41" s="7">
+        <v>118</v>
+      </c>
+      <c r="H41" s="10">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7">
+        <v>24</v>
+      </c>
+      <c r="E42" s="7">
+        <v>13</v>
+      </c>
+      <c r="F42" s="7">
+        <v>3</v>
+      </c>
+      <c r="G42" s="7">
+        <v>74</v>
+      </c>
+      <c r="H42" s="10">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="7">
+        <v>23</v>
+      </c>
+      <c r="D43" s="7">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7">
+        <v>6</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>38</v>
+      </c>
+      <c r="H43" s="10">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="7">
+        <v>169</v>
+      </c>
+      <c r="D44" s="7">
+        <v>55</v>
+      </c>
+      <c r="E44" s="7">
+        <v>46</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5</v>
+      </c>
+      <c r="G44" s="7">
+        <v>275</v>
+      </c>
+      <c r="H44" s="10">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="7">
+        <v>103</v>
+      </c>
+      <c r="D45" s="7">
+        <v>40</v>
+      </c>
+      <c r="E45" s="7">
+        <v>27</v>
+      </c>
+      <c r="F45" s="7">
+        <v>3</v>
+      </c>
+      <c r="G45" s="7">
+        <v>173</v>
+      </c>
+      <c r="H45" s="10">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="7">
+        <v>292</v>
+      </c>
+      <c r="D46" s="7">
+        <v>81</v>
+      </c>
+      <c r="E46" s="7">
+        <v>72</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4</v>
+      </c>
+      <c r="G46" s="7">
+        <v>449</v>
+      </c>
+      <c r="H46" s="10">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="7">
+        <v>7</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>11</v>
+      </c>
+      <c r="H47" s="10">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA11FD-BF34-422F-8061-1518F23DE2AE}">
   <dimension ref="A1:V88"/>
   <sheetViews>
@@ -5756,7 +6958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289225F8-54E6-466C-BC6C-327CC00592B7}">
   <dimension ref="A1:H98"/>
   <sheetViews>
@@ -6967,1208 +8169,6 @@
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D275E7-C753-47AA-B032-C6F42E5EDEDD}">
-  <dimension ref="A1:H94"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1244</v>
-      </c>
-      <c r="D4" s="7">
-        <v>740</v>
-      </c>
-      <c r="E4" s="7">
-        <v>411</v>
-      </c>
-      <c r="F4" s="7">
-        <v>81</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2475</v>
-      </c>
-      <c r="H4" s="10">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <v>713</v>
-      </c>
-      <c r="D5" s="7">
-        <v>572</v>
-      </c>
-      <c r="E5" s="7">
-        <v>269</v>
-      </c>
-      <c r="F5" s="7">
-        <v>70</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1624</v>
-      </c>
-      <c r="H5" s="10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7">
-        <v>530</v>
-      </c>
-      <c r="D6" s="7">
-        <v>168</v>
-      </c>
-      <c r="E6" s="7">
-        <v>142</v>
-      </c>
-      <c r="F6" s="7">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7">
-        <v>852</v>
-      </c>
-      <c r="H6" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7">
-        <v>8</v>
-      </c>
-      <c r="G7" s="7">
-        <v>86</v>
-      </c>
-      <c r="H7" s="10">
-        <v>92.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>91</v>
-      </c>
-      <c r="H8" s="10">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7">
-        <v>27</v>
-      </c>
-      <c r="E9" s="7">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7">
-        <v>76</v>
-      </c>
-      <c r="H9" s="10">
-        <v>95.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4</v>
-      </c>
-      <c r="G10" s="7">
-        <v>62</v>
-      </c>
-      <c r="H10" s="10">
-        <v>91.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7">
-        <v>52</v>
-      </c>
-      <c r="D11" s="7">
-        <v>61</v>
-      </c>
-      <c r="E11" s="7">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7">
-        <v>143</v>
-      </c>
-      <c r="H11" s="10">
-        <v>96.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7">
-        <v>30</v>
-      </c>
-      <c r="E12" s="7">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7">
-        <v>58</v>
-      </c>
-      <c r="H12" s="10">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3</v>
-      </c>
-      <c r="G13" s="7">
-        <v>53</v>
-      </c>
-      <c r="H13" s="10">
-        <v>96.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7">
-        <v>9</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>60</v>
-      </c>
-      <c r="H14" s="10">
-        <v>96.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7">
-        <v>79</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65</v>
-      </c>
-      <c r="E15" s="7">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7">
-        <v>7</v>
-      </c>
-      <c r="G15" s="7">
-        <v>184</v>
-      </c>
-      <c r="H15" s="10">
-        <v>94.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7">
-        <v>69</v>
-      </c>
-      <c r="D16" s="7">
-        <v>78</v>
-      </c>
-      <c r="E16" s="7">
-        <v>34</v>
-      </c>
-      <c r="F16" s="7">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7">
-        <v>189</v>
-      </c>
-      <c r="H16" s="10">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7">
-        <v>99</v>
-      </c>
-      <c r="D17" s="7">
-        <v>55</v>
-      </c>
-      <c r="E17" s="7">
-        <v>35</v>
-      </c>
-      <c r="F17" s="7">
-        <v>6</v>
-      </c>
-      <c r="G17" s="7">
-        <v>195</v>
-      </c>
-      <c r="H17" s="10">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="7">
-        <v>89</v>
-      </c>
-      <c r="D18" s="7">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7">
-        <v>7</v>
-      </c>
-      <c r="G18" s="7">
-        <v>196</v>
-      </c>
-      <c r="H18" s="10">
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7">
-        <v>25</v>
-      </c>
-      <c r="E19" s="7">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>111</v>
-      </c>
-      <c r="H19" s="10">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7">
-        <v>33</v>
-      </c>
-      <c r="D20" s="7">
-        <v>22</v>
-      </c>
-      <c r="E20" s="7">
-        <v>12</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3</v>
-      </c>
-      <c r="G20" s="7">
-        <v>69</v>
-      </c>
-      <c r="H20" s="10">
-        <v>96.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7">
-        <v>24</v>
-      </c>
-      <c r="D21" s="7">
-        <v>7</v>
-      </c>
-      <c r="E21" s="7">
-        <v>6</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>38</v>
-      </c>
-      <c r="H21" s="10">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7">
-        <v>163</v>
-      </c>
-      <c r="D22" s="7">
-        <v>51</v>
-      </c>
-      <c r="E22" s="7">
-        <v>45</v>
-      </c>
-      <c r="F22" s="7">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7">
-        <v>263</v>
-      </c>
-      <c r="H22" s="10">
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7">
-        <v>102</v>
-      </c>
-      <c r="D23" s="7">
-        <v>39</v>
-      </c>
-      <c r="E23" s="7">
-        <v>28</v>
-      </c>
-      <c r="F23" s="7">
-        <v>3</v>
-      </c>
-      <c r="G23" s="7">
-        <v>172</v>
-      </c>
-      <c r="H23" s="10">
-        <v>86.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="7">
-        <v>266</v>
-      </c>
-      <c r="D24" s="7">
-        <v>78</v>
-      </c>
-      <c r="E24" s="7">
-        <v>69</v>
-      </c>
-      <c r="F24" s="7">
-        <v>4</v>
-      </c>
-      <c r="G24" s="7">
-        <v>417</v>
-      </c>
-      <c r="H24" s="10">
-        <v>69.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="7">
-        <v>7</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7">
-        <v>12</v>
-      </c>
-      <c r="H25" s="10">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1283</v>
-      </c>
-      <c r="D26" s="7">
-        <v>763</v>
-      </c>
-      <c r="E26" s="7">
-        <v>422</v>
-      </c>
-      <c r="F26" s="7">
-        <v>85</v>
-      </c>
-      <c r="G26" s="7">
-        <v>2552</v>
-      </c>
-      <c r="H26" s="10">
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7">
-        <v>719</v>
-      </c>
-      <c r="D27" s="7">
-        <v>586</v>
-      </c>
-      <c r="E27" s="7">
-        <v>278</v>
-      </c>
-      <c r="F27" s="7">
-        <v>73</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1655</v>
-      </c>
-      <c r="H27" s="10">
-        <v>94.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7">
-        <v>564</v>
-      </c>
-      <c r="D28" s="7">
-        <v>177</v>
-      </c>
-      <c r="E28" s="7">
-        <v>144</v>
-      </c>
-      <c r="F28" s="7">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7">
-        <v>897</v>
-      </c>
-      <c r="H28" s="10">
-        <v>77.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7">
-        <v>31</v>
-      </c>
-      <c r="E29" s="7">
-        <v>16</v>
-      </c>
-      <c r="F29" s="7">
-        <v>9</v>
-      </c>
-      <c r="G29" s="7">
-        <v>85</v>
-      </c>
-      <c r="H29" s="10">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7">
-        <v>46</v>
-      </c>
-      <c r="D30" s="7">
-        <v>29</v>
-      </c>
-      <c r="E30" s="7">
-        <v>12</v>
-      </c>
-      <c r="F30" s="7">
-        <v>5</v>
-      </c>
-      <c r="G30" s="7">
-        <v>92</v>
-      </c>
-      <c r="H30" s="10">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="7">
-        <v>38</v>
-      </c>
-      <c r="D31" s="7">
-        <v>28</v>
-      </c>
-      <c r="E31" s="7">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7">
-        <v>3</v>
-      </c>
-      <c r="G31" s="7">
-        <v>79</v>
-      </c>
-      <c r="H31" s="10">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="7">
-        <v>16</v>
-      </c>
-      <c r="D32" s="7">
-        <v>29</v>
-      </c>
-      <c r="E32" s="7">
-        <v>10</v>
-      </c>
-      <c r="F32" s="7">
-        <v>3</v>
-      </c>
-      <c r="G32" s="7">
-        <v>58</v>
-      </c>
-      <c r="H32" s="10">
-        <v>91.1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="7">
-        <v>57</v>
-      </c>
-      <c r="D33" s="7">
-        <v>66</v>
-      </c>
-      <c r="E33" s="7">
-        <v>26</v>
-      </c>
-      <c r="F33" s="7">
-        <v>7</v>
-      </c>
-      <c r="G33" s="7">
-        <v>156</v>
-      </c>
-      <c r="H33" s="10">
-        <v>93.9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="7">
-        <v>18</v>
-      </c>
-      <c r="D34" s="7">
-        <v>33</v>
-      </c>
-      <c r="E34" s="7">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7">
-        <v>4</v>
-      </c>
-      <c r="G34" s="7">
-        <v>67</v>
-      </c>
-      <c r="H34" s="10">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>22</v>
-      </c>
-      <c r="D35" s="7">
-        <v>14</v>
-      </c>
-      <c r="E35" s="7">
-        <v>8</v>
-      </c>
-      <c r="F35" s="7">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7">
-        <v>46</v>
-      </c>
-      <c r="H35" s="10">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="7">
-        <v>27</v>
-      </c>
-      <c r="D36" s="7">
-        <v>20</v>
-      </c>
-      <c r="E36" s="7">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7">
-        <v>4</v>
-      </c>
-      <c r="G36" s="7">
-        <v>61</v>
-      </c>
-      <c r="H36" s="10">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="7">
-        <v>70</v>
-      </c>
-      <c r="D37" s="7">
-        <v>59</v>
-      </c>
-      <c r="E37" s="7">
-        <v>31</v>
-      </c>
-      <c r="F37" s="7">
-        <v>7</v>
-      </c>
-      <c r="G37" s="7">
-        <v>167</v>
-      </c>
-      <c r="H37" s="10">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7">
-        <v>72</v>
-      </c>
-      <c r="D38" s="7">
-        <v>86</v>
-      </c>
-      <c r="E38" s="7">
-        <v>38</v>
-      </c>
-      <c r="F38" s="7">
-        <v>8</v>
-      </c>
-      <c r="G38" s="7">
-        <v>204</v>
-      </c>
-      <c r="H38" s="10">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="7">
-        <v>99</v>
-      </c>
-      <c r="D39" s="7">
-        <v>65</v>
-      </c>
-      <c r="E39" s="7">
-        <v>39</v>
-      </c>
-      <c r="F39" s="7">
-        <v>6</v>
-      </c>
-      <c r="G39" s="7">
-        <v>210</v>
-      </c>
-      <c r="H39" s="10">
-        <v>92.8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="7">
-        <v>89</v>
-      </c>
-      <c r="D40" s="7">
-        <v>66</v>
-      </c>
-      <c r="E40" s="7">
-        <v>29</v>
-      </c>
-      <c r="F40" s="7">
-        <v>7</v>
-      </c>
-      <c r="G40" s="7">
-        <v>191</v>
-      </c>
-      <c r="H40" s="10">
-        <v>94.1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="7">
-        <v>73</v>
-      </c>
-      <c r="D41" s="7">
-        <v>25</v>
-      </c>
-      <c r="E41" s="7">
-        <v>16</v>
-      </c>
-      <c r="F41" s="7">
-        <v>3</v>
-      </c>
-      <c r="G41" s="7">
-        <v>118</v>
-      </c>
-      <c r="H41" s="10">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="7">
-        <v>33</v>
-      </c>
-      <c r="D42" s="7">
-        <v>24</v>
-      </c>
-      <c r="E42" s="7">
-        <v>13</v>
-      </c>
-      <c r="F42" s="7">
-        <v>3</v>
-      </c>
-      <c r="G42" s="7">
-        <v>74</v>
-      </c>
-      <c r="H42" s="10">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="7">
-        <v>23</v>
-      </c>
-      <c r="D43" s="7">
-        <v>8</v>
-      </c>
-      <c r="E43" s="7">
-        <v>6</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7">
-        <v>38</v>
-      </c>
-      <c r="H43" s="10">
-        <v>93.7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="7">
-        <v>169</v>
-      </c>
-      <c r="D44" s="7">
-        <v>55</v>
-      </c>
-      <c r="E44" s="7">
-        <v>46</v>
-      </c>
-      <c r="F44" s="7">
-        <v>5</v>
-      </c>
-      <c r="G44" s="7">
-        <v>275</v>
-      </c>
-      <c r="H44" s="10">
-        <v>90.7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="7">
-        <v>103</v>
-      </c>
-      <c r="D45" s="7">
-        <v>40</v>
-      </c>
-      <c r="E45" s="7">
-        <v>27</v>
-      </c>
-      <c r="F45" s="7">
-        <v>3</v>
-      </c>
-      <c r="G45" s="7">
-        <v>173</v>
-      </c>
-      <c r="H45" s="10">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="7">
-        <v>292</v>
-      </c>
-      <c r="D46" s="7">
-        <v>81</v>
-      </c>
-      <c r="E46" s="7">
-        <v>72</v>
-      </c>
-      <c r="F46" s="7">
-        <v>4</v>
-      </c>
-      <c r="G46" s="7">
-        <v>449</v>
-      </c>
-      <c r="H46" s="10">
-        <v>65.900000000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="7">
-        <v>7</v>
-      </c>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7">
-        <v>1</v>
-      </c>
-      <c r="G47" s="7">
-        <v>11</v>
-      </c>
-      <c r="H47" s="10">
-        <v>86.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
